--- a/biology/Botanique/Château_Romer/Château_Romer.xlsx
+++ b/biology/Botanique/Château_Romer/Château_Romer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Romer</t>
+          <t>Château_Romer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le château Romer, est un domaine viticole de 6.5 ha situé à Fargues en Gironde. En AOC Sauternes, il est classé deuxième grand cru dans la classification officielle des vins de Bordeaux de 1855.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Romer</t>
+          <t>Château_Romer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire du domaine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Anciennement propriétés successives des comtes de La Mire Mory et de Beaurepaire de Louvagny, le domaine est depuis 1911 sous le contrôle de la famille Farges.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Romer</t>
+          <t>Château_Romer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Terroir</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur les 6,5 ha du domaine deux seulement sont en production pour le cru classé. Le sol du terroir est graveleux et argilo-graveleux avec un encépagement à 90 % de sémillon, 5 % sauvignon, et 5 % muscadelle.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Romer</t>
+          <t>Château_Romer</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
